--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clinja/Documents/GitHub/FRC-2018-Scouting/res/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Match</t>
   </si>
@@ -52,12 +63,15 @@
   </si>
   <si>
     <t>Cross</t>
+  </si>
+  <si>
+    <t>OppSwitch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,45 +391,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,27 +447,30 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Match</t>
   </si>
@@ -38,34 +38,55 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Parked</t>
+  </si>
+  <si>
+    <t>Climb</t>
+  </si>
+  <si>
+    <t>OppSwitch</t>
+  </si>
+  <si>
+    <t>AutoOppSwitch</t>
+  </si>
+  <si>
+    <t>AutoWrongScale</t>
+  </si>
+  <si>
+    <t>AutoScale</t>
+  </si>
+  <si>
+    <t>AutoWrongSwitch</t>
+  </si>
+  <si>
+    <t>AutoSwitch</t>
+  </si>
+  <si>
+    <t>AutoRun</t>
+  </si>
+  <si>
+    <t>AutoOppWrongSwitch</t>
+  </si>
+  <si>
+    <t>AutoVault</t>
+  </si>
+  <si>
+    <t>WrongSwitch</t>
+  </si>
+  <si>
+    <t>WrongScale</t>
+  </si>
+  <si>
+    <t>OppWrongSwitch</t>
+  </si>
+  <si>
     <t>Vault</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Parked</t>
-  </si>
-  <si>
-    <t>Climb</t>
-  </si>
-  <si>
-    <t>Auton</t>
-  </si>
-  <si>
-    <t>Teleop</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>OppSwitch</t>
   </si>
 </sst>
 </file>
@@ -392,86 +413,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1" collapsed="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="6.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.83203125" style="1" collapsed="1"/>
+    <col min="21" max="23" width="8.83203125" style="1"/>
+    <col min="24" max="16384" width="8.83203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>